--- a/Benchmarking.xlsx
+++ b/Benchmarking.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -57,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -69,6 +69,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,8 +107,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -101,7 +149,39 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="33">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -186,7 +266,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0723744314569374"/>
+          <c:y val="0.151847067741287"/>
+          <c:w val="0.895055753900328"/>
+          <c:h val="0.805523722599508"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -266,7 +356,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Max</c:v>
+                  <c:v>Min</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -332,7 +422,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Min</c:v>
+                  <c:v>Max</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -467,11 +557,11 @@
         </c:dLbls>
         <c:gapWidth val="269"/>
         <c:overlap val="-20"/>
-        <c:axId val="-188741824"/>
-        <c:axId val="-188322048"/>
+        <c:axId val="165894832"/>
+        <c:axId val="165904080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-188741824"/>
+        <c:axId val="165894832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -514,7 +604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-188322048"/>
+        <c:crossAx val="165904080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -522,7 +612,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-188322048"/>
+        <c:axId val="165904080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -586,7 +676,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-188741824"/>
+        <c:crossAx val="165894832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1504,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1611,10 +1701,10 @@
         <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>7</v>
@@ -44456,6 +44546,7 @@
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>